--- a/PESO/Importaciones por Lugar de Salida 2015 - Mensual - Editado.xlsx
+++ b/PESO/Importaciones por Lugar de Salida 2015 - Mensual - Editado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aseba\Desktop\DATA Exterior\Importaciones\Peso\2015\Editado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMERCIO\PESO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61653ABB-C8BA-4238-BD85-11A1E40D0552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707A0DD-A0E5-4E22-A952-3273EFF64292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ImpoLugarIngreso Peso" sheetId="2" r:id="rId1"/>
@@ -349,7 +349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -390,11 +390,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,6 +509,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -425,21 +522,387 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -450,6 +913,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13E13AF3-785B-49DC-A5A9-EC8241829CE4}" name="imp_salida_2015" displayName="imp_salida_2015" ref="A1:M56" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+  <autoFilter ref="A1:M56" xr:uid="{62D173B0-3336-4696-AE0D-14875BFCC616}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{5F2EA5BC-280A-4529-909E-F9A596FC6195}" name="Lugar de Ingreso (Puerto-Aeropuerto-Avanzada)" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{65C87380-D678-49E8-8B86-E82720FDBD86}" name="Enero - 2015" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{82479A24-94FA-4D0E-AB46-54CB161D07C8}" name="Febrero - 2015" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3EA275ED-BCDD-49B5-82F2-D01C1596B146}" name="Marzo - 2015" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{22BCE20D-D098-442E-BC77-1BF56F9A270A}" name="Abril - 2015" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{C4278532-C42B-4370-BB76-50093BDFB604}" name="Mayo - 2015" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{ED11B8C3-9278-4F18-BFE5-4FC0F28E76DC}" name="Junio - 2015" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{FD17BAA5-9860-4275-B11E-9C1599B285E2}" name="Julio - 2015" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{74E7EA7A-074C-4E18-81E8-F5F397A8C535}" name="Agosto - 2015" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{3225C002-3AB9-4326-8BB9-67B28ECBC85D}" name="Septiembre - 2015" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{5D40179A-CE1C-4EA8-A56E-BA677B02E7C5}" name="Octubre - 2015" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{A0E125B0-DBB3-4EAF-9B92-086AB8FDE8F5}" name="Noviembre - 2015" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{DE15213E-430C-4007-ABA1-374B3F838067}" name="Diciembre - 2015" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,42 +1222,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15" t="s">
         <v>72</v>
       </c>
     </row>
@@ -816,7 +1301,7 @@
       <c r="M4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="15"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -3302,2317 +3787,2320 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.88671875" style="2" customWidth="1"/>
     <col min="2" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="23" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="12">
         <v>7105236.7700000014</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="12">
         <v>7783991.3500000015</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="12">
         <v>9186025.3099999987</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="12">
         <v>8954759.6000000015</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="12">
         <v>7447651.3099999968</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="12">
         <v>9244887.879999999</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="12">
         <v>8925170.2200000025</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="12">
         <v>8135177.7199999988</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J2" s="12">
         <v>8733645.9700000007</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="12">
         <v>9469773.7800000031</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="12">
         <v>10507601.020000003</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="18">
         <v>9482750.5299999975</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0</v>
-      </c>
-      <c r="E3" s="21">
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>3.7</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="12">
         <v>23</v>
       </c>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21">
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
         <v>132</v>
       </c>
-      <c r="L3" s="21">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="12">
         <v>61179.360000000001</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="12">
         <v>195961.98</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="12">
         <v>76165.59</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="12">
         <v>13592.83</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="12">
         <v>11496.57</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="12">
         <v>381286</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="12">
         <v>109594.93000000001</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="12">
         <v>63963.799999999996</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="12">
         <v>5603.6</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="12">
         <v>44387.5</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="12">
         <v>6398.85</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="18">
         <v>12132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="12">
         <v>32880</v>
       </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
         <v>1174.75</v>
       </c>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0</v>
-      </c>
-      <c r="I5" s="21">
-        <v>0</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
         <v>51</v>
       </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="12">
         <v>4.2</v>
       </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
         <v>53.8</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="12">
         <v>7.5</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="12">
         <v>25.24</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="12">
         <v>10.34</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="12">
         <v>246.77</v>
       </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
         <v>2773.8</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="12">
         <v>347</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="12">
         <v>155.30000000000001</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="18">
         <v>69.7</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="21">
-        <v>0</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="12">
         <v>632</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="12">
         <v>587</v>
       </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <v>376</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="12">
         <v>228</v>
       </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12">
         <v>7.08</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>211.26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="12">
         <v>95162991.540000021</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="12">
         <v>56038113.419999994</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="12">
         <v>44841250.229999989</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="12">
         <v>77558876.270000011</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="12">
         <v>43041726.690000005</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="12">
         <v>119173500.66</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="12">
         <v>63946585.470000006</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="12">
         <v>47188014.419999994</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="12">
         <v>20803148.639999997</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="12">
         <v>63604529.389999993</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="12">
         <v>40997706.469999999</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>65404062.490000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="12">
         <v>29661380.370000001</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="12">
         <v>19552421.039999999</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="12">
         <v>14964664.18</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="12">
         <v>27204473.460000001</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="12">
         <v>18814236.109999999</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="12">
         <v>20363232.57</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="12">
         <v>19367607.98</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="12">
         <v>22744114.990000002</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="12">
         <v>31127913.809999999</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="12">
         <v>36997505.289999999</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="12">
         <v>29292608.060000002</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="18">
         <v>32362985.879999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="12">
         <v>8312.2999999999993</v>
       </c>
-      <c r="C10" s="21">
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
         <v>400</v>
       </c>
-      <c r="I10" s="21">
-        <v>0</v>
-      </c>
-      <c r="J10" s="21">
-        <v>0</v>
-      </c>
-      <c r="K10" s="21">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21">
-        <v>0</v>
-      </c>
-      <c r="M10" s="21">
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="12">
         <v>46200000</v>
       </c>
-      <c r="C11" s="21">
-        <v>0</v>
-      </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
         <v>46200000</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="12">
         <v>8368677.5199999996</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="12">
         <v>26163491.48</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="12">
         <v>64245175</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="12">
         <v>15288027</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="12">
         <v>26876526</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="12">
         <v>66964968</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="12">
         <v>33731069</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="18">
         <v>8600761</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="12">
         <v>20462726.489999998</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="12">
         <v>22774365.030000001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="12">
         <v>20959119.120000001</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="12">
         <v>19729882.890000001</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="12">
         <v>18878724.34</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="12">
         <v>26042893.510000002</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="12">
         <v>21516522.370000001</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="12">
         <v>24152717.690000001</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="12">
         <v>23077805.109999999</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="12">
         <v>20518506.080000002</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="12">
         <v>12032904.029999999</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="18">
         <v>27978285.329999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="21">
-        <v>0</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
-        <v>0</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21">
-        <v>0</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0</v>
-      </c>
-      <c r="L13" s="21">
-        <v>0</v>
-      </c>
-      <c r="M13" s="21">
+      <c r="B13" s="12">
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18">
         <v>38740</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="12">
         <v>2496348.0499999998</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="12">
         <v>2458957.92</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="12">
         <v>1940407.94</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="12">
         <v>1660174.55</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="12">
         <v>1939126.0699999998</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="12">
         <v>2012735.31</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="12">
         <v>2840815.01</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="12">
         <v>3058659.75</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="12">
         <v>2629972.92</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="12">
         <v>2374205.2700000005</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="12">
         <v>2348144.9299999997</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>2480506.85</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="21">
-        <v>0</v>
-      </c>
-      <c r="C15" s="21">
-        <v>0</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="B15" s="12">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
         <v>19150</v>
       </c>
-      <c r="E15" s="21">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
-      <c r="G15" s="21">
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
         <v>7320</v>
       </c>
-      <c r="H15" s="21">
-        <v>0</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
         <v>38489</v>
       </c>
-      <c r="J15" s="21">
-        <v>0</v>
-      </c>
-      <c r="K15" s="21">
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="12">
         <v>13744</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="12">
         <v>603910.40000000002</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="18">
         <v>4100</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="12">
         <v>143104.5</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="12">
         <v>258544.3</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="12">
         <v>276094.24</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="12">
         <v>271645.40000000002</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="12">
         <v>187571.4</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="12">
         <v>386122.1</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="12">
         <v>199109.7</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="12">
         <v>336880.41</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="12">
         <v>240854.8</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="12">
         <v>402772.62</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="12">
         <v>96549.82</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <v>318298.36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="12">
         <v>1895726.09</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="12">
         <v>22916534.48</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="12">
         <v>1385869.52</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="12">
         <v>7021502.46</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="12">
         <v>19016201.48</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="12">
         <v>2743551.32</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="12">
         <v>13407608</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="12">
         <v>14700000</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="12">
         <v>15143519.5</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="12">
         <v>5450263.5</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="12">
         <v>1648314</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="18">
         <v>3763670</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="21">
-        <v>0</v>
-      </c>
-      <c r="C18" s="21">
-        <v>0</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
         <v>30540</v>
       </c>
-      <c r="H18" s="21">
-        <v>0</v>
-      </c>
-      <c r="I18" s="21">
-        <v>0</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0</v>
+      </c>
+      <c r="J18" s="12">
         <v>91020</v>
       </c>
-      <c r="K18" s="21">
-        <v>0</v>
-      </c>
-      <c r="L18" s="21">
-        <v>0</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="12">
         <v>1440576</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="12">
         <v>751820</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="12">
         <v>24865</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="12">
         <v>23962</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="12">
         <v>27903</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="12">
         <v>98748.6</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="12">
         <v>96618</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="12">
         <v>23962</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="12">
         <v>91751.67</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="12">
         <v>815</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="12">
         <v>23962</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="18">
         <v>47924</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="12">
         <v>22224</v>
       </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
         <v>24137622</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="12">
         <v>23793130</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="12">
         <v>6312277</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="12">
         <v>225614.19</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="12">
         <v>2670</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="12">
         <v>35004508</v>
       </c>
-      <c r="J20" s="21">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
-        <v>0</v>
-      </c>
-      <c r="L20" s="21">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="12">
         <v>168517369.47999999</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="12">
         <v>155879589.22999999</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="12">
         <v>139766552.13999996</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="12">
         <v>217347107.44</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="12">
         <v>201072628.82000002</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="12">
         <v>283979490.44</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="12">
         <v>203543019.37</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="12">
         <v>257326258.63999999</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="12">
         <v>272640368.74000001</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="12">
         <v>134684748.53999999</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="12">
         <v>142707978.51000002</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="18">
         <v>193638975.22999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="21">
-        <v>0</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
         <v>10000</v>
       </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
         <v>1802000</v>
       </c>
-      <c r="J22" s="21">
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="12">
         <v>87060</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="12">
         <v>60700</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="12">
         <v>89140</v>
       </c>
-      <c r="E23" s="21">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0</v>
-      </c>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
-        <v>0</v>
-      </c>
-      <c r="I23" s="21">
-        <v>0</v>
-      </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="12">
         <v>3006485.19</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="12">
         <v>6462714.6500000004</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="12">
         <v>8394096.7899999991</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <v>2179763.77</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="12">
         <v>6691682.0700000003</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="12">
         <v>5779908.3399999999</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="12">
         <v>3009800.49</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="12">
         <v>4200279.4000000004</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="12">
         <v>3362877.03</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="12">
         <v>3720233</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="12">
         <v>1642374</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="18">
         <v>3327511</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="21">
-        <v>0</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
+      <c r="B25" s="12">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
         <v>4529.82</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="12">
         <v>2112.73</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="12">
         <v>2615.44</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="12">
         <v>4107.54</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="12">
         <v>826.6</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="12">
         <v>1131.95</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="18">
         <v>1147.43</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="12">
         <v>130648383</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="12">
         <v>101447900</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="12">
         <v>109333070</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="12">
         <v>145655300</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="12">
         <v>126529000</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="12">
         <v>130683000</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="12">
         <v>104061600</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="12">
         <v>13200400</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="12">
         <v>172714000</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="12">
         <v>70735000</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="12">
         <v>71750000</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="18">
         <v>125893200</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="12">
         <v>834030</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="12">
         <v>985880</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="12">
         <v>1141060</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="12">
         <v>1108028</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="12">
         <v>690820</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="12">
         <v>518120</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="12">
         <v>58620</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="12">
         <v>115000</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="12">
         <v>388560</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="12">
         <v>729980</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="12">
         <v>491630</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="18">
         <v>1051660</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="12">
         <v>9692555.3499999996</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="12">
         <v>8880867.8300000001</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="12">
         <v>10705427.960000001</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="12">
         <v>16403435.610000001</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="12">
         <v>10191414.539999999</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="12">
         <v>8388485.71</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="12">
         <v>16642853.99</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="12">
         <v>11108790.58</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="12">
         <v>9783292.7300000004</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="12">
         <v>10394843.999999998</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="12">
         <v>14439090.289999995</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="18">
         <v>15380663.58</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="12">
         <v>692</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="12">
         <v>6672</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="12">
         <v>2600</v>
       </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12">
         <v>5761</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="12">
         <v>352.1</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="12">
         <v>5239</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="12">
         <v>795</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="12">
         <v>330</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="12">
         <v>1163</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="12">
         <v>5721</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="18">
         <v>1685</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="12">
         <v>118115881.52999999</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="12">
         <v>68505052.710000008</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="12">
         <v>74701118.300000012</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="12">
         <v>52759512.189999998</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="12">
         <v>45731044.780000001</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="12">
         <v>54559890.49000001</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="12">
         <v>98531425.189999998</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="12">
         <v>104789974.23</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="12">
         <v>50335227.550000012</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="12">
         <v>56651705.280000001</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="12">
         <v>72624228.409999996</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="18">
         <v>49089478.460000001</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="21">
+      <c r="B31" s="12">
         <v>11942234.75</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="12">
         <v>16391298.24</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="12">
         <v>3946111.34</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="12">
         <v>5019997.49</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="12">
         <v>3490572.12</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="12">
         <v>3654352.01</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="12">
         <v>4196717.17</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="12">
         <v>2616261.0300000003</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="12">
         <v>4005798.7700000005</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="12">
         <v>3271511.2399999998</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="12">
         <v>2335797.1399999997</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="18">
         <v>4384634.1900000004</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="21">
-        <v>0</v>
-      </c>
-      <c r="C32" s="21">
-        <v>0</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0</v>
-      </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
+      <c r="B32" s="12">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12">
         <v>68</v>
       </c>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="21">
-        <v>0</v>
-      </c>
-      <c r="J32" s="21">
-        <v>0</v>
-      </c>
-      <c r="K32" s="21">
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
         <v>14</v>
       </c>
-      <c r="L32" s="21">
-        <v>0</v>
-      </c>
-      <c r="M32" s="21">
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="21">
+      <c r="B33" s="12">
         <v>414609211.12</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="12">
         <v>449058582.03999996</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="12">
         <v>877472077.06000006</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="12">
         <v>478822622.75</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="12">
         <v>511789120.06999999</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="12">
         <v>550663177.76999998</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="12">
         <v>550751127.29999995</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="12">
         <v>457602983.91000009</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="12">
         <v>473894327.37999994</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="12">
         <v>423204010.67999995</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="12">
         <v>577018308.80999994</v>
       </c>
-      <c r="M33" s="21">
+      <c r="M33" s="18">
         <v>475026751.25</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="12">
         <v>19909358</v>
       </c>
-      <c r="C34" s="21">
-        <v>0</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
         <v>19609190</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="12">
         <v>13485860</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="12">
         <v>14339792</v>
       </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
         <v>13456970</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="12">
         <v>10482558</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="12">
         <v>10024093</v>
       </c>
-      <c r="K34" s="21">
-        <v>0</v>
-      </c>
-      <c r="L34" s="21">
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
         <v>13427335</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="21">
+      <c r="B35" s="12">
         <v>231620</v>
       </c>
-      <c r="C35" s="21">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0</v>
-      </c>
-      <c r="E35" s="21">
+      <c r="C35" s="12">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
         <v>115280</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="12">
         <v>25920</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="12">
         <v>59420</v>
       </c>
-      <c r="H35" s="21">
-        <v>0</v>
-      </c>
-      <c r="I35" s="21">
-        <v>0</v>
-      </c>
-      <c r="J35" s="21">
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="I35" s="12">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
         <v>57600</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="12">
         <v>228440</v>
       </c>
-      <c r="L35" s="21">
-        <v>0</v>
-      </c>
-      <c r="M35" s="21">
+      <c r="L35" s="12">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
         <v>377180</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="12">
         <v>59640</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="12">
         <v>175780</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="12">
         <v>258260</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="12">
         <v>84200</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="12">
         <v>58800</v>
       </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12">
         <v>28560</v>
       </c>
-      <c r="I36" s="21">
-        <v>0</v>
-      </c>
-      <c r="J36" s="21">
+      <c r="I36" s="12">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
         <v>145480</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="12">
         <v>201480</v>
       </c>
-      <c r="L36" s="21">
-        <v>0</v>
-      </c>
-      <c r="M36" s="21">
+      <c r="L36" s="12">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="12">
         <v>23848.71</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="12">
         <v>21433</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="12">
         <v>28249</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="12">
         <v>15440</v>
       </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
         <v>6</v>
       </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0</v>
-      </c>
-      <c r="J37" s="21">
-        <v>0</v>
-      </c>
-      <c r="K37" s="21">
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
         <v>2637455.09</v>
       </c>
-      <c r="L37" s="21">
-        <v>0</v>
-      </c>
-      <c r="M37" s="21">
+      <c r="L37" s="12">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
         <v>28136.48</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="12">
         <v>5319717.5500000007</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="12">
         <v>3698548.9</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="12">
         <v>5420083.1500000004</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="12">
         <v>4959667.5</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="12">
         <v>5270265.68</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="12">
         <v>3664038.4699999997</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="12">
         <v>5033103.71</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="12">
         <v>4262561.79</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="12">
         <v>4815279.59</v>
       </c>
-      <c r="K38" s="21">
+      <c r="K38" s="12">
         <v>5880315.0499999998</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="12">
         <v>5315488.1899999995</v>
       </c>
-      <c r="M38" s="21">
+      <c r="M38" s="18">
         <v>6607071.1899999995</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="21">
-        <v>0</v>
-      </c>
-      <c r="C39" s="21">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0</v>
-      </c>
-      <c r="E39" s="21">
-        <v>0</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
+      <c r="B39" s="12">
+        <v>0</v>
+      </c>
+      <c r="C39" s="12">
+        <v>0</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="12">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
         <v>49500900</v>
       </c>
-      <c r="H39" s="21">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21">
+      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="I39" s="12">
         <v>5448930</v>
       </c>
-      <c r="J39" s="21">
-        <v>0</v>
-      </c>
-      <c r="K39" s="21">
-        <v>0</v>
-      </c>
-      <c r="L39" s="21">
-        <v>0</v>
-      </c>
-      <c r="M39" s="21">
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="12">
+        <v>0</v>
+      </c>
+      <c r="L39" s="12">
+        <v>0</v>
+      </c>
+      <c r="M39" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="21">
+      <c r="B40" s="12">
         <v>60286620</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="12">
         <v>40583890</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40" s="12">
         <v>21114441</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="12">
         <v>21739375</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="12">
         <v>101493668</v>
       </c>
-      <c r="G40" s="21">
+      <c r="G40" s="12">
         <v>59121170</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="12">
         <v>26092000</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="12">
         <v>46016205</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="12">
         <v>5140569</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="12">
         <v>34250445</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="12">
         <v>56730668</v>
       </c>
-      <c r="M40" s="21">
+      <c r="M40" s="18">
         <v>64120800</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="21">
+      <c r="B41" s="12">
         <v>25542075.039999999</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="12">
         <v>30187608.09</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41" s="12">
         <v>34943372.870000005</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="12">
         <v>35026598.309999995</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="12">
         <v>27954974.420000002</v>
       </c>
-      <c r="G41" s="21">
+      <c r="G41" s="12">
         <v>29453054.870000001</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="12">
         <v>17064003.219999999</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="12">
         <v>24168218.549999997</v>
       </c>
-      <c r="J41" s="21">
+      <c r="J41" s="12">
         <v>23357559.66</v>
       </c>
-      <c r="K41" s="21">
+      <c r="K41" s="12">
         <v>27089965.960000001</v>
       </c>
-      <c r="L41" s="21">
+      <c r="L41" s="12">
         <v>28359927.550000001</v>
       </c>
-      <c r="M41" s="21">
+      <c r="M41" s="18">
         <v>29546364.939999998</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="21">
+      <c r="B42" s="12">
         <v>155404649.86000001</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42" s="12">
         <v>33153138.970000003</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42" s="12">
         <v>79287517.790000021</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="12">
         <v>133481360.31999999</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="12">
         <v>217120838.61000001</v>
       </c>
-      <c r="G42" s="21">
+      <c r="G42" s="12">
         <v>254586048.11999995</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H42" s="12">
         <v>56865278.840000004</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="12">
         <v>241288387.15999997</v>
       </c>
-      <c r="J42" s="21">
+      <c r="J42" s="12">
         <v>229812227.40999997</v>
       </c>
-      <c r="K42" s="21">
+      <c r="K42" s="12">
         <v>180076247.56000003</v>
       </c>
-      <c r="L42" s="21">
+      <c r="L42" s="12">
         <v>158126857.44</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M42" s="18">
         <v>282392796.68999994</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43" s="12">
         <v>36520290.5</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43" s="12">
         <v>46716018</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43" s="12">
         <v>50029397.5</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="12">
         <v>17142699</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="12">
         <v>18515500</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G43" s="12">
         <v>27832505</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="12">
         <v>55284160</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="12">
         <v>69754281.200000003</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="12">
         <v>71285506.599999994</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="12">
         <v>51975642.5</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="12">
         <v>20493613</v>
       </c>
-      <c r="M43" s="21">
+      <c r="M43" s="18">
         <v>19932169</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44" s="12">
         <v>19000</v>
       </c>
-      <c r="C44" s="21">
-        <v>0</v>
-      </c>
-      <c r="D44" s="21">
-        <v>0</v>
-      </c>
-      <c r="E44" s="21">
-        <v>0</v>
-      </c>
-      <c r="F44" s="21">
-        <v>0</v>
-      </c>
-      <c r="G44" s="21">
-        <v>0</v>
-      </c>
-      <c r="H44" s="21">
-        <v>0</v>
-      </c>
-      <c r="I44" s="21">
-        <v>0</v>
-      </c>
-      <c r="J44" s="21">
-        <v>0</v>
-      </c>
-      <c r="K44" s="21">
-        <v>0</v>
-      </c>
-      <c r="L44" s="21">
-        <v>0</v>
-      </c>
-      <c r="M44" s="21">
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="12">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="12">
+        <v>0</v>
+      </c>
+      <c r="L44" s="12">
+        <v>0</v>
+      </c>
+      <c r="M44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="12">
         <v>1566325.13</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="12">
         <v>932838.04999999993</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="12">
         <v>3575873.61</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="12">
         <v>1417375.8199999998</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="12">
         <v>1328036.74</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="12">
         <v>2630320.37</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="12">
         <v>963534.25</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="12">
         <v>1168060.75</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="12">
         <v>1556022.9</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="12">
         <v>1182997.73</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="12">
         <v>1175924.73</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="18">
         <v>1085635.7</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="12">
         <v>772421878.08000004</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="12">
         <v>740894915.52999997</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="12">
         <v>953070106.86000001</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="12">
         <v>843542335.27999997</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="12">
         <v>799211727.93000007</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="12">
         <v>871140631.81999993</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="12">
         <v>797225382.69000006</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="12">
         <v>688087497.30999994</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="12">
         <v>601724971.30999994</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="12">
         <v>819656353.31999993</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="12">
         <v>680094955.00999999</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="18">
         <v>827467126.62000012</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="12">
         <v>823111432.75000012</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="12">
         <v>603632125.0999999</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="12">
         <v>661180358.72999978</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="12">
         <v>540805171.08999991</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="12">
         <v>530758952.07999992</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G47" s="12">
         <v>566335916.44000006</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="12">
         <v>862175795.94000006</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="12">
         <v>793224777.32000017</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="12">
         <v>799200134.94999981</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="12">
         <v>917406883.78999984</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="12">
         <v>833197103.51999986</v>
       </c>
-      <c r="M47" s="21">
+      <c r="M47" s="18">
         <v>828078105.36000001</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="21">
-        <v>0</v>
-      </c>
-      <c r="C48" s="21">
-        <v>0</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-      <c r="E48" s="21">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21">
-        <v>0</v>
-      </c>
-      <c r="G48" s="21">
-        <v>0</v>
-      </c>
-      <c r="H48" s="21">
-        <v>0</v>
-      </c>
-      <c r="I48" s="21">
-        <v>0</v>
-      </c>
-      <c r="J48" s="21">
-        <v>0</v>
-      </c>
-      <c r="K48" s="21">
-        <v>0</v>
-      </c>
-      <c r="L48" s="21">
+      <c r="B48" s="12">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="12">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12">
+        <v>0</v>
+      </c>
+      <c r="L48" s="12">
         <v>6838</v>
       </c>
-      <c r="M48" s="21">
+      <c r="M48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="21">
+      <c r="B49" s="12">
         <v>14490</v>
       </c>
-      <c r="C49" s="21">
-        <v>0</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-      <c r="E49" s="21">
-        <v>0</v>
-      </c>
-      <c r="F49" s="21">
-        <v>0</v>
-      </c>
-      <c r="G49" s="21">
+      <c r="C49" s="12">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12">
         <v>4190</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="12">
         <v>95532</v>
       </c>
-      <c r="I49" s="21">
-        <v>0</v>
-      </c>
-      <c r="J49" s="21">
+      <c r="I49" s="12">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
         <v>59704</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="12">
         <v>87365</v>
       </c>
-      <c r="L49" s="21">
+      <c r="L49" s="12">
         <v>83054</v>
       </c>
-      <c r="M49" s="21">
+      <c r="M49" s="18">
         <v>52700</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="21">
+      <c r="B50" s="12">
         <v>574589078.42999995</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50" s="12">
         <v>549444283.94000006</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="12">
         <v>778344925.2700001</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="12">
         <v>514120404.06</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="12">
         <v>285068374.74000001</v>
       </c>
-      <c r="G50" s="21">
+      <c r="G50" s="12">
         <v>719701279.58999991</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="12">
         <v>662106629.96999991</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="12">
         <v>571527804.20000005</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="12">
         <v>619739275.67999995</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="12">
         <v>207940552.20999998</v>
       </c>
-      <c r="L50" s="21">
+      <c r="L50" s="12">
         <v>558735713.21000004</v>
       </c>
-      <c r="M50" s="21">
+      <c r="M50" s="18">
         <v>387797641.82999998</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="21">
+      <c r="B51" s="12">
         <v>14967037.300000001</v>
       </c>
-      <c r="C51" s="21">
+      <c r="C51" s="12">
         <v>331073</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="12">
         <v>1874523</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="12">
         <v>132223725.31999999</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="12">
         <v>269324525.13999999</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G51" s="12">
         <v>24852911.699999999</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="12">
         <v>7566554.0899999999</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="12">
         <v>20771479.289999999</v>
       </c>
-      <c r="J51" s="21">
+      <c r="J51" s="12">
         <v>302981</v>
       </c>
-      <c r="K51" s="21">
+      <c r="K51" s="12">
         <v>284539560</v>
       </c>
-      <c r="L51" s="21">
+      <c r="L51" s="12">
         <v>151974637</v>
       </c>
-      <c r="M51" s="21">
+      <c r="M51" s="18">
         <v>169813449</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="21">
+      <c r="B52" s="12">
         <v>70800645</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C52" s="12">
         <v>90141500</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="12">
         <v>91700667</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="12">
         <v>175389943</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="12">
         <v>124206388</v>
       </c>
-      <c r="G52" s="21">
+      <c r="G52" s="12">
         <v>249688713</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="12">
         <v>117693966</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="12">
         <v>155851601</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="12">
         <v>153603661</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="12">
         <v>146736546</v>
       </c>
-      <c r="L52" s="21">
+      <c r="L52" s="12">
         <v>96911808</v>
       </c>
-      <c r="M52" s="21">
+      <c r="M52" s="18">
         <v>134539549</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="21">
-        <v>0</v>
-      </c>
-      <c r="C53" s="21">
-        <v>0</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-      <c r="E53" s="21">
-        <v>0</v>
-      </c>
-      <c r="F53" s="21">
-        <v>0</v>
-      </c>
-      <c r="G53" s="21">
-        <v>0</v>
-      </c>
-      <c r="H53" s="21">
-        <v>0</v>
-      </c>
-      <c r="I53" s="21">
-        <v>0</v>
-      </c>
-      <c r="J53" s="21">
-        <v>0</v>
-      </c>
-      <c r="K53" s="21">
+      <c r="B53" s="12">
+        <v>0</v>
+      </c>
+      <c r="C53" s="12">
+        <v>0</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12">
+        <v>0</v>
+      </c>
+      <c r="I53" s="12">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="12">
         <v>4434.5</v>
       </c>
-      <c r="L53" s="21">
-        <v>0</v>
-      </c>
-      <c r="M53" s="21">
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="12">
         <v>467329367.31</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="12">
         <v>345640838.64000005</v>
       </c>
-      <c r="D54" s="21">
+      <c r="D54" s="12">
         <v>384010862.06999999</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="12">
         <v>375044058.11000007</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="12">
         <v>385252827.8300001</v>
       </c>
-      <c r="G54" s="21">
+      <c r="G54" s="12">
         <v>367869573.71000022</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="12">
         <v>436247669.72000009</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="12">
         <v>397604881.89999998</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="12">
         <v>407307700.50999987</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="12">
         <v>407180108.22000009</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="12">
         <v>393377878.25999993</v>
       </c>
-      <c r="M54" s="21">
+      <c r="M54" s="18">
         <v>390481751.95000005</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="12">
         <v>291914567</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="12">
         <v>272071538</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="12">
         <v>390684209</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="12">
         <v>235469670</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="12">
         <v>151159022</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G55" s="12">
         <v>236639607</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="12">
         <v>204856698</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="12">
         <v>231953429</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="12">
         <v>192748077</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="12">
         <v>242659661</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="12">
         <v>287464651</v>
       </c>
-      <c r="M55" s="21">
+      <c r="M55" s="18">
         <v>230382545</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="25">
         <v>251731237.80000001</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="25">
         <v>220004754.59999999</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="25">
         <v>284665067.60000002</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="25">
         <v>513419336</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="25">
         <v>217723341.80000001</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="25">
         <v>269938799.30000001</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="25">
         <v>348883429.30000001</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="25">
         <v>391147239.10000002</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="25">
         <v>259181925.90000001</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="25">
         <v>363788492</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="25">
         <v>302151428.89999998</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M56" s="26">
         <v>223940023.90000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>